--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H2">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N2">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O2">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P2">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q2">
-        <v>1.212824883280333</v>
+        <v>0.5106404884583333</v>
       </c>
       <c r="R2">
-        <v>10.915423949523</v>
+        <v>4.595764396125</v>
       </c>
       <c r="S2">
-        <v>0.02222139828559691</v>
+        <v>0.007286056312592988</v>
       </c>
       <c r="T2">
-        <v>0.0222213982855969</v>
+        <v>0.007286056312592987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H3">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.181434</v>
       </c>
       <c r="O3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P3">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q3">
-        <v>0.3847243809726666</v>
+        <v>0.1096831534633333</v>
       </c>
       <c r="R3">
-        <v>3.462519428754</v>
+        <v>0.9871483811699999</v>
       </c>
       <c r="S3">
-        <v>0.007048926698016383</v>
+        <v>0.001565010316924436</v>
       </c>
       <c r="T3">
-        <v>0.007048926698016384</v>
+        <v>0.001565010316924436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H4">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>3.287074</v>
       </c>
       <c r="N4">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P4">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q4">
-        <v>0.234457127198</v>
+        <v>0.06684264979</v>
       </c>
       <c r="R4">
-        <v>2.110114144782</v>
+        <v>0.60158384811</v>
       </c>
       <c r="S4">
-        <v>0.004295727500471623</v>
+        <v>0.0009537420581811369</v>
       </c>
       <c r="T4">
-        <v>0.004295727500471623</v>
+        <v>0.0009537420581811366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N5">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O5">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P5">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q5">
-        <v>5.240939952603</v>
+        <v>7.739913610725001</v>
       </c>
       <c r="R5">
-        <v>47.168459573427</v>
+        <v>69.659222496525</v>
       </c>
       <c r="S5">
-        <v>0.09602459158217133</v>
+        <v>0.1104366921483329</v>
       </c>
       <c r="T5">
-        <v>0.09602459158217132</v>
+        <v>0.1104366921483328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.181434</v>
       </c>
       <c r="O6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P6">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q6">
         <v>1.662496710594</v>
@@ -818,10 +818,10 @@
         <v>14.962470395346</v>
       </c>
       <c r="S6">
-        <v>0.03046029320793954</v>
+        <v>0.02372127735005658</v>
       </c>
       <c r="T6">
-        <v>0.03046029320793954</v>
+        <v>0.02372127735005658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>3.287074</v>
       </c>
       <c r="N7">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P7">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q7">
         <v>1.013151809502</v>
       </c>
       <c r="R7">
-        <v>9.118366285518002</v>
+        <v>9.118366285518</v>
       </c>
       <c r="S7">
-        <v>0.01856298480768664</v>
+        <v>0.01445612187847379</v>
       </c>
       <c r="T7">
-        <v>0.01856298480768664</v>
+        <v>0.01445612187847379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H8">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.00372766666667</v>
+        <v>25.11140833333333</v>
       </c>
       <c r="N8">
-        <v>51.011183</v>
+        <v>75.334225</v>
       </c>
       <c r="O8">
-        <v>0.6620200065567142</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="P8">
-        <v>0.6620200065567141</v>
+        <v>0.7431105026796001</v>
       </c>
       <c r="Q8">
-        <v>29.67872002677322</v>
+        <v>43.83006314926945</v>
       </c>
       <c r="R8">
-        <v>267.108480240959</v>
+        <v>394.470568343425</v>
       </c>
       <c r="S8">
-        <v>0.543774016688946</v>
+        <v>0.6253877542186743</v>
       </c>
       <c r="T8">
-        <v>0.5437740166889459</v>
+        <v>0.6253877542186742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H9">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.181434</v>
       </c>
       <c r="O9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="P9">
-        <v>0.2100016587103467</v>
+        <v>0.1596166092346045</v>
       </c>
       <c r="Q9">
-        <v>9.41448955060911</v>
+        <v>9.414489550609112</v>
       </c>
       <c r="R9">
-        <v>84.730405955482</v>
+        <v>84.73040595548201</v>
       </c>
       <c r="S9">
-        <v>0.1724924388043907</v>
+        <v>0.1343303215676235</v>
       </c>
       <c r="T9">
-        <v>0.1724924388043907</v>
+        <v>0.1343303215676235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H10">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>3.287074</v>
       </c>
       <c r="N10">
-        <v>9.861222000000001</v>
+        <v>9.861222</v>
       </c>
       <c r="O10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579543</v>
       </c>
       <c r="P10">
-        <v>0.1279783347329392</v>
+        <v>0.09727288808579541</v>
       </c>
       <c r="Q10">
         <v>5.737338945067334</v>
@@ -1066,10 +1066,10 @@
         <v>51.63605050560601</v>
       </c>
       <c r="S10">
-        <v>0.1051196224247809</v>
+        <v>0.08186302414914051</v>
       </c>
       <c r="T10">
-        <v>0.1051196224247809</v>
+        <v>0.08186302414914048</v>
       </c>
     </row>
   </sheetData>
